--- a/seller/app/modules/product/template/appliances.xlsx
+++ b/seller/app/modules/product/template/appliances.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="49">
   <si>
     <t>productCode</t>
   </si>
@@ -19,6 +19,9 @@
     <t>productName</t>
   </si>
   <si>
+    <t>basePrice</t>
+  </si>
+  <si>
     <t>MRP</t>
   </si>
   <si>
@@ -70,27 +73,24 @@
     <t>returnWindow</t>
   </si>
   <si>
-    <t>isVegetarian</t>
-  </si>
-  <si>
     <t>manufacturerName</t>
   </si>
   <si>
     <t>manufacturedDate</t>
   </si>
   <si>
-    <t>nutritionalInfo</t>
-  </si>
-  <si>
-    <t>additiveInfo</t>
-  </si>
-  <si>
-    <t>instructions</t>
+    <t>packingDate</t>
   </si>
   <si>
     <t>isCancellable</t>
   </si>
   <si>
+    <t>cancelWindow</t>
+  </si>
+  <si>
+    <t>manufacturerOrganizationName</t>
+  </si>
+  <si>
     <t>longDescription</t>
   </si>
   <si>
@@ -103,24 +103,12 @@
     <t>images</t>
   </si>
   <si>
-    <t>manufacturerOrPackerName</t>
-  </si>
-  <si>
-    <t>manufacturerOrPackerAddress</t>
-  </si>
-  <si>
     <t>commonOrGenericNameOfCommodity</t>
   </si>
   <si>
     <t>monthYearOfManufacturePackingImport</t>
   </si>
   <si>
-    <t>importerFSSAILicenseNo</t>
-  </si>
-  <si>
-    <t>brandOwnerFSSAILicenseNo</t>
-  </si>
-  <si>
     <t>data import instructions</t>
   </si>
   <si>
@@ -139,34 +127,19 @@
     <t>1234</t>
   </si>
   <si>
-    <t>Kilogram</t>
-  </si>
-  <si>
-    <t>100 kg</t>
-  </si>
-  <si>
-    <t>12 cm</t>
-  </si>
-  <si>
-    <t>1 cm</t>
+    <t>Centemeter</t>
   </si>
   <si>
     <t>Yes</t>
   </si>
   <si>
-    <t>PT30M</t>
-  </si>
-  <si>
-    <t>Parle</t>
-  </si>
-  <si>
-    <t>12/1/2023</t>
-  </si>
-  <si>
-    <t>Info</t>
-  </si>
-  <si>
-    <t>info</t>
+    <t>jbl</t>
+  </si>
+  <si>
+    <t>2023/11/05</t>
+  </si>
+  <si>
+    <t>2023/11/06</t>
   </si>
   <si>
     <t>No</t>
@@ -181,10 +154,7 @@
     <t>IRCTC</t>
   </si>
   <si>
-    <t>Pune</t>
-  </si>
-  <si>
-    <t>11/23</t>
+    <t>2023/12/07</t>
   </si>
   <si>
     <t>1. images should be a public url accessible over internet
@@ -214,11 +184,11 @@
     </font>
     <font>
       <u/>
-      <color rgb="FF0563C1"/>
+      <color rgb="FF1155CC"/>
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -231,6 +201,12 @@
         <bgColor rgb="FFB7E1CD"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border/>
@@ -238,25 +214,47 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="15">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="bottom"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -266,7 +264,18 @@
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <border/>
+    </dxf>
+  </dxfs>
 </styleSheet>
 </file>
 
@@ -477,6 +486,12 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="29" max="29" width="17.88"/>
+    <col customWidth="1" min="30" max="30" width="20.0"/>
+    <col customWidth="1" min="31" max="31" width="26.63"/>
+    <col customWidth="1" min="32" max="32" width="28.5"/>
+  </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1">
       <c r="A1" s="1" t="s">
@@ -485,7 +500,7 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -542,19 +557,19 @@
       <c r="U1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="V1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="W1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="X1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Y1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="Z1" s="3" t="s">
         <v>25</v>
       </c>
       <c r="AA1" s="1" t="s">
@@ -578,144 +593,3116 @@
       <c r="AG1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="1" t="s">
+    </row>
+    <row r="2" ht="20.25" customHeight="1">
+      <c r="A2" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="B2" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="C2" s="6">
+        <v>400.0</v>
+      </c>
+      <c r="D2" s="7">
+        <v>12345.0</v>
+      </c>
+      <c r="E2" s="7">
+        <v>100.0</v>
+      </c>
+      <c r="F2" s="7">
+        <v>100.0</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="H2" s="7">
+        <v>5.0</v>
+      </c>
+      <c r="I2" s="8" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="3" t="s">
+      <c r="J2" s="9">
+        <v>100.0</v>
+      </c>
+      <c r="K2" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="L2" s="9">
+        <v>1.0</v>
+      </c>
+      <c r="M2" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="5">
-        <v>12345.0</v>
-      </c>
-      <c r="D2" s="5">
-        <v>100.0</v>
-      </c>
-      <c r="E2" s="5">
-        <v>100.0</v>
-      </c>
-      <c r="F2" s="3" t="s">
+      <c r="N2" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="O2" s="9">
+        <v>12.0</v>
+      </c>
+      <c r="P2" s="9">
+        <v>1.0</v>
+      </c>
+      <c r="Q2" s="9">
+        <v>1.0</v>
+      </c>
+      <c r="R2" s="9">
+        <v>1.0</v>
+      </c>
+      <c r="S2" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="G2" s="5">
-        <v>5.0</v>
-      </c>
-      <c r="H2" s="6" t="s">
+      <c r="T2" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="U2" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="I2" s="5">
-        <v>100.0</v>
-      </c>
-      <c r="J2" s="3" t="s">
+      <c r="V2" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="K2" s="5">
+      <c r="W2" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="X2" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y2" s="12">
         <v>1.0</v>
       </c>
-      <c r="L2" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="N2" s="3" t="s">
+      <c r="Z2" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA2" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="AB2" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC2" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD2" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="P2" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="R2" s="3" t="s">
+      <c r="AE2" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="S2" s="3" t="s">
+      <c r="AF2" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="T2" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="U2" s="3" t="s">
+      <c r="AG2" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="V2" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="W2" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="X2" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="Y2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z2" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="AA2" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="AB2" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="AC2" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD2" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="AE2" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="AF2" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="AG2" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="AH2" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="AI2" s="5">
-        <v>9.87654321234567E14</v>
-      </c>
-      <c r="AJ2" s="5">
-        <v>9.87654321234567E14</v>
-      </c>
-      <c r="AK2" s="3" t="s">
-        <v>58</v>
-      </c>
+    </row>
+    <row r="3">
+      <c r="Y3" s="4"/>
+    </row>
+    <row r="4">
+      <c r="Y4" s="4"/>
+    </row>
+    <row r="5">
+      <c r="Y5" s="4"/>
+    </row>
+    <row r="6">
+      <c r="Y6" s="4"/>
+    </row>
+    <row r="7">
+      <c r="Y7" s="4"/>
+    </row>
+    <row r="8">
+      <c r="Y8" s="4"/>
+    </row>
+    <row r="9">
+      <c r="Y9" s="4"/>
+    </row>
+    <row r="10">
+      <c r="Y10" s="4"/>
+    </row>
+    <row r="11">
+      <c r="Y11" s="4"/>
+    </row>
+    <row r="12">
+      <c r="Y12" s="4"/>
+    </row>
+    <row r="13">
+      <c r="Y13" s="4"/>
+    </row>
+    <row r="14">
+      <c r="Y14" s="4"/>
+    </row>
+    <row r="15">
+      <c r="Y15" s="4"/>
+    </row>
+    <row r="16">
+      <c r="Y16" s="4"/>
+    </row>
+    <row r="17">
+      <c r="Y17" s="4"/>
+    </row>
+    <row r="18">
+      <c r="Y18" s="4"/>
+    </row>
+    <row r="19">
+      <c r="Y19" s="4"/>
+    </row>
+    <row r="20">
+      <c r="Y20" s="4"/>
+    </row>
+    <row r="21">
+      <c r="Y21" s="4"/>
+    </row>
+    <row r="22">
+      <c r="Y22" s="4"/>
+    </row>
+    <row r="23">
+      <c r="Y23" s="4"/>
+    </row>
+    <row r="24">
+      <c r="Y24" s="4"/>
+    </row>
+    <row r="25">
+      <c r="Y25" s="4"/>
+    </row>
+    <row r="26">
+      <c r="Y26" s="4"/>
+    </row>
+    <row r="27">
+      <c r="Y27" s="4"/>
+    </row>
+    <row r="28">
+      <c r="Y28" s="4"/>
+    </row>
+    <row r="29">
+      <c r="Y29" s="4"/>
+    </row>
+    <row r="30">
+      <c r="Y30" s="4"/>
+    </row>
+    <row r="31">
+      <c r="Y31" s="4"/>
+    </row>
+    <row r="32">
+      <c r="Y32" s="4"/>
+    </row>
+    <row r="33">
+      <c r="Y33" s="4"/>
+    </row>
+    <row r="34">
+      <c r="Y34" s="4"/>
+    </row>
+    <row r="35">
+      <c r="Y35" s="4"/>
+    </row>
+    <row r="36">
+      <c r="Y36" s="4"/>
+    </row>
+    <row r="37">
+      <c r="Y37" s="4"/>
+    </row>
+    <row r="38">
+      <c r="Y38" s="4"/>
+    </row>
+    <row r="39">
+      <c r="Y39" s="4"/>
+    </row>
+    <row r="40">
+      <c r="Y40" s="4"/>
+    </row>
+    <row r="41">
+      <c r="Y41" s="4"/>
+    </row>
+    <row r="42">
+      <c r="Y42" s="4"/>
+    </row>
+    <row r="43">
+      <c r="Y43" s="4"/>
+    </row>
+    <row r="44">
+      <c r="Y44" s="4"/>
+    </row>
+    <row r="45">
+      <c r="Y45" s="4"/>
+    </row>
+    <row r="46">
+      <c r="Y46" s="4"/>
+    </row>
+    <row r="47">
+      <c r="Y47" s="4"/>
+    </row>
+    <row r="48">
+      <c r="Y48" s="4"/>
+    </row>
+    <row r="49">
+      <c r="Y49" s="4"/>
+    </row>
+    <row r="50">
+      <c r="Y50" s="4"/>
+    </row>
+    <row r="51">
+      <c r="Y51" s="4"/>
+    </row>
+    <row r="52">
+      <c r="Y52" s="4"/>
+    </row>
+    <row r="53">
+      <c r="Y53" s="4"/>
+    </row>
+    <row r="54">
+      <c r="Y54" s="4"/>
+    </row>
+    <row r="55">
+      <c r="Y55" s="4"/>
+    </row>
+    <row r="56">
+      <c r="Y56" s="4"/>
+    </row>
+    <row r="57">
+      <c r="Y57" s="4"/>
+    </row>
+    <row r="58">
+      <c r="Y58" s="4"/>
+    </row>
+    <row r="59">
+      <c r="Y59" s="4"/>
+    </row>
+    <row r="60">
+      <c r="Y60" s="4"/>
+    </row>
+    <row r="61">
+      <c r="Y61" s="4"/>
+    </row>
+    <row r="62">
+      <c r="Y62" s="4"/>
+    </row>
+    <row r="63">
+      <c r="Y63" s="4"/>
+    </row>
+    <row r="64">
+      <c r="Y64" s="4"/>
+    </row>
+    <row r="65">
+      <c r="Y65" s="4"/>
+    </row>
+    <row r="66">
+      <c r="Y66" s="4"/>
+    </row>
+    <row r="67">
+      <c r="Y67" s="4"/>
+    </row>
+    <row r="68">
+      <c r="Y68" s="4"/>
+    </row>
+    <row r="69">
+      <c r="Y69" s="4"/>
+    </row>
+    <row r="70">
+      <c r="Y70" s="4"/>
+    </row>
+    <row r="71">
+      <c r="Y71" s="4"/>
+    </row>
+    <row r="72">
+      <c r="Y72" s="4"/>
+    </row>
+    <row r="73">
+      <c r="Y73" s="4"/>
+    </row>
+    <row r="74">
+      <c r="Y74" s="4"/>
+    </row>
+    <row r="75">
+      <c r="Y75" s="4"/>
+    </row>
+    <row r="76">
+      <c r="Y76" s="4"/>
+    </row>
+    <row r="77">
+      <c r="Y77" s="4"/>
+    </row>
+    <row r="78">
+      <c r="Y78" s="4"/>
+    </row>
+    <row r="79">
+      <c r="Y79" s="4"/>
+    </row>
+    <row r="80">
+      <c r="Y80" s="4"/>
+    </row>
+    <row r="81">
+      <c r="Y81" s="4"/>
+    </row>
+    <row r="82">
+      <c r="Y82" s="4"/>
+    </row>
+    <row r="83">
+      <c r="Y83" s="4"/>
+    </row>
+    <row r="84">
+      <c r="Y84" s="4"/>
+    </row>
+    <row r="85">
+      <c r="Y85" s="4"/>
+    </row>
+    <row r="86">
+      <c r="Y86" s="4"/>
+    </row>
+    <row r="87">
+      <c r="Y87" s="4"/>
+    </row>
+    <row r="88">
+      <c r="Y88" s="4"/>
+    </row>
+    <row r="89">
+      <c r="Y89" s="4"/>
+    </row>
+    <row r="90">
+      <c r="Y90" s="4"/>
+    </row>
+    <row r="91">
+      <c r="Y91" s="4"/>
+    </row>
+    <row r="92">
+      <c r="Y92" s="4"/>
+    </row>
+    <row r="93">
+      <c r="Y93" s="4"/>
+    </row>
+    <row r="94">
+      <c r="Y94" s="4"/>
+    </row>
+    <row r="95">
+      <c r="Y95" s="4"/>
+    </row>
+    <row r="96">
+      <c r="Y96" s="4"/>
+    </row>
+    <row r="97">
+      <c r="Y97" s="4"/>
+    </row>
+    <row r="98">
+      <c r="Y98" s="4"/>
+    </row>
+    <row r="99">
+      <c r="Y99" s="4"/>
+    </row>
+    <row r="100">
+      <c r="Y100" s="4"/>
+    </row>
+    <row r="101">
+      <c r="Y101" s="4"/>
+    </row>
+    <row r="102">
+      <c r="Y102" s="4"/>
+    </row>
+    <row r="103">
+      <c r="Y103" s="4"/>
+    </row>
+    <row r="104">
+      <c r="Y104" s="4"/>
+    </row>
+    <row r="105">
+      <c r="Y105" s="4"/>
+    </row>
+    <row r="106">
+      <c r="Y106" s="4"/>
+    </row>
+    <row r="107">
+      <c r="Y107" s="4"/>
+    </row>
+    <row r="108">
+      <c r="Y108" s="4"/>
+    </row>
+    <row r="109">
+      <c r="Y109" s="4"/>
+    </row>
+    <row r="110">
+      <c r="Y110" s="4"/>
+    </row>
+    <row r="111">
+      <c r="Y111" s="4"/>
+    </row>
+    <row r="112">
+      <c r="Y112" s="4"/>
+    </row>
+    <row r="113">
+      <c r="Y113" s="4"/>
+    </row>
+    <row r="114">
+      <c r="Y114" s="4"/>
+    </row>
+    <row r="115">
+      <c r="Y115" s="4"/>
+    </row>
+    <row r="116">
+      <c r="Y116" s="4"/>
+    </row>
+    <row r="117">
+      <c r="Y117" s="4"/>
+    </row>
+    <row r="118">
+      <c r="Y118" s="4"/>
+    </row>
+    <row r="119">
+      <c r="Y119" s="4"/>
+    </row>
+    <row r="120">
+      <c r="Y120" s="4"/>
+    </row>
+    <row r="121">
+      <c r="Y121" s="4"/>
+    </row>
+    <row r="122">
+      <c r="Y122" s="4"/>
+    </row>
+    <row r="123">
+      <c r="Y123" s="4"/>
+    </row>
+    <row r="124">
+      <c r="Y124" s="4"/>
+    </row>
+    <row r="125">
+      <c r="Y125" s="4"/>
+    </row>
+    <row r="126">
+      <c r="Y126" s="4"/>
+    </row>
+    <row r="127">
+      <c r="Y127" s="4"/>
+    </row>
+    <row r="128">
+      <c r="Y128" s="4"/>
+    </row>
+    <row r="129">
+      <c r="Y129" s="4"/>
+    </row>
+    <row r="130">
+      <c r="Y130" s="4"/>
+    </row>
+    <row r="131">
+      <c r="Y131" s="4"/>
+    </row>
+    <row r="132">
+      <c r="Y132" s="4"/>
+    </row>
+    <row r="133">
+      <c r="Y133" s="4"/>
+    </row>
+    <row r="134">
+      <c r="Y134" s="4"/>
+    </row>
+    <row r="135">
+      <c r="Y135" s="4"/>
+    </row>
+    <row r="136">
+      <c r="Y136" s="4"/>
+    </row>
+    <row r="137">
+      <c r="Y137" s="4"/>
+    </row>
+    <row r="138">
+      <c r="Y138" s="4"/>
+    </row>
+    <row r="139">
+      <c r="Y139" s="4"/>
+    </row>
+    <row r="140">
+      <c r="Y140" s="4"/>
+    </row>
+    <row r="141">
+      <c r="Y141" s="4"/>
+    </row>
+    <row r="142">
+      <c r="Y142" s="4"/>
+    </row>
+    <row r="143">
+      <c r="Y143" s="4"/>
+    </row>
+    <row r="144">
+      <c r="Y144" s="4"/>
+    </row>
+    <row r="145">
+      <c r="Y145" s="4"/>
+    </row>
+    <row r="146">
+      <c r="Y146" s="4"/>
+    </row>
+    <row r="147">
+      <c r="Y147" s="4"/>
+    </row>
+    <row r="148">
+      <c r="Y148" s="4"/>
+    </row>
+    <row r="149">
+      <c r="Y149" s="4"/>
+    </row>
+    <row r="150">
+      <c r="Y150" s="4"/>
+    </row>
+    <row r="151">
+      <c r="Y151" s="4"/>
+    </row>
+    <row r="152">
+      <c r="Y152" s="4"/>
+    </row>
+    <row r="153">
+      <c r="Y153" s="4"/>
+    </row>
+    <row r="154">
+      <c r="Y154" s="4"/>
+    </row>
+    <row r="155">
+      <c r="Y155" s="4"/>
+    </row>
+    <row r="156">
+      <c r="Y156" s="4"/>
+    </row>
+    <row r="157">
+      <c r="Y157" s="4"/>
+    </row>
+    <row r="158">
+      <c r="Y158" s="4"/>
+    </row>
+    <row r="159">
+      <c r="Y159" s="4"/>
+    </row>
+    <row r="160">
+      <c r="Y160" s="4"/>
+    </row>
+    <row r="161">
+      <c r="Y161" s="4"/>
+    </row>
+    <row r="162">
+      <c r="Y162" s="4"/>
+    </row>
+    <row r="163">
+      <c r="Y163" s="4"/>
+    </row>
+    <row r="164">
+      <c r="Y164" s="4"/>
+    </row>
+    <row r="165">
+      <c r="Y165" s="4"/>
+    </row>
+    <row r="166">
+      <c r="Y166" s="4"/>
+    </row>
+    <row r="167">
+      <c r="Y167" s="4"/>
+    </row>
+    <row r="168">
+      <c r="Y168" s="4"/>
+    </row>
+    <row r="169">
+      <c r="Y169" s="4"/>
+    </row>
+    <row r="170">
+      <c r="Y170" s="4"/>
+    </row>
+    <row r="171">
+      <c r="Y171" s="4"/>
+    </row>
+    <row r="172">
+      <c r="Y172" s="4"/>
+    </row>
+    <row r="173">
+      <c r="Y173" s="4"/>
+    </row>
+    <row r="174">
+      <c r="Y174" s="4"/>
+    </row>
+    <row r="175">
+      <c r="Y175" s="4"/>
+    </row>
+    <row r="176">
+      <c r="Y176" s="4"/>
+    </row>
+    <row r="177">
+      <c r="Y177" s="4"/>
+    </row>
+    <row r="178">
+      <c r="Y178" s="4"/>
+    </row>
+    <row r="179">
+      <c r="Y179" s="4"/>
+    </row>
+    <row r="180">
+      <c r="Y180" s="4"/>
+    </row>
+    <row r="181">
+      <c r="Y181" s="4"/>
+    </row>
+    <row r="182">
+      <c r="Y182" s="4"/>
+    </row>
+    <row r="183">
+      <c r="Y183" s="4"/>
+    </row>
+    <row r="184">
+      <c r="Y184" s="4"/>
+    </row>
+    <row r="185">
+      <c r="Y185" s="4"/>
+    </row>
+    <row r="186">
+      <c r="Y186" s="4"/>
+    </row>
+    <row r="187">
+      <c r="Y187" s="4"/>
+    </row>
+    <row r="188">
+      <c r="Y188" s="4"/>
+    </row>
+    <row r="189">
+      <c r="Y189" s="4"/>
+    </row>
+    <row r="190">
+      <c r="Y190" s="4"/>
+    </row>
+    <row r="191">
+      <c r="Y191" s="4"/>
+    </row>
+    <row r="192">
+      <c r="Y192" s="4"/>
+    </row>
+    <row r="193">
+      <c r="Y193" s="4"/>
+    </row>
+    <row r="194">
+      <c r="Y194" s="4"/>
+    </row>
+    <row r="195">
+      <c r="Y195" s="4"/>
+    </row>
+    <row r="196">
+      <c r="Y196" s="4"/>
+    </row>
+    <row r="197">
+      <c r="Y197" s="4"/>
+    </row>
+    <row r="198">
+      <c r="Y198" s="4"/>
+    </row>
+    <row r="199">
+      <c r="Y199" s="4"/>
+    </row>
+    <row r="200">
+      <c r="Y200" s="4"/>
+    </row>
+    <row r="201">
+      <c r="Y201" s="4"/>
+    </row>
+    <row r="202">
+      <c r="Y202" s="4"/>
+    </row>
+    <row r="203">
+      <c r="Y203" s="4"/>
+    </row>
+    <row r="204">
+      <c r="Y204" s="4"/>
+    </row>
+    <row r="205">
+      <c r="Y205" s="4"/>
+    </row>
+    <row r="206">
+      <c r="Y206" s="4"/>
+    </row>
+    <row r="207">
+      <c r="Y207" s="4"/>
+    </row>
+    <row r="208">
+      <c r="Y208" s="4"/>
+    </row>
+    <row r="209">
+      <c r="Y209" s="4"/>
+    </row>
+    <row r="210">
+      <c r="Y210" s="4"/>
+    </row>
+    <row r="211">
+      <c r="Y211" s="4"/>
+    </row>
+    <row r="212">
+      <c r="Y212" s="4"/>
+    </row>
+    <row r="213">
+      <c r="Y213" s="4"/>
+    </row>
+    <row r="214">
+      <c r="Y214" s="4"/>
+    </row>
+    <row r="215">
+      <c r="Y215" s="4"/>
+    </row>
+    <row r="216">
+      <c r="Y216" s="4"/>
+    </row>
+    <row r="217">
+      <c r="Y217" s="4"/>
+    </row>
+    <row r="218">
+      <c r="Y218" s="4"/>
+    </row>
+    <row r="219">
+      <c r="Y219" s="4"/>
+    </row>
+    <row r="220">
+      <c r="Y220" s="4"/>
+    </row>
+    <row r="221">
+      <c r="Y221" s="4"/>
+    </row>
+    <row r="222">
+      <c r="Y222" s="4"/>
+    </row>
+    <row r="223">
+      <c r="Y223" s="4"/>
+    </row>
+    <row r="224">
+      <c r="Y224" s="4"/>
+    </row>
+    <row r="225">
+      <c r="Y225" s="4"/>
+    </row>
+    <row r="226">
+      <c r="Y226" s="4"/>
+    </row>
+    <row r="227">
+      <c r="Y227" s="4"/>
+    </row>
+    <row r="228">
+      <c r="Y228" s="4"/>
+    </row>
+    <row r="229">
+      <c r="Y229" s="4"/>
+    </row>
+    <row r="230">
+      <c r="Y230" s="4"/>
+    </row>
+    <row r="231">
+      <c r="Y231" s="4"/>
+    </row>
+    <row r="232">
+      <c r="Y232" s="4"/>
+    </row>
+    <row r="233">
+      <c r="Y233" s="4"/>
+    </row>
+    <row r="234">
+      <c r="Y234" s="4"/>
+    </row>
+    <row r="235">
+      <c r="Y235" s="4"/>
+    </row>
+    <row r="236">
+      <c r="Y236" s="4"/>
+    </row>
+    <row r="237">
+      <c r="Y237" s="4"/>
+    </row>
+    <row r="238">
+      <c r="Y238" s="4"/>
+    </row>
+    <row r="239">
+      <c r="Y239" s="4"/>
+    </row>
+    <row r="240">
+      <c r="Y240" s="4"/>
+    </row>
+    <row r="241">
+      <c r="Y241" s="4"/>
+    </row>
+    <row r="242">
+      <c r="Y242" s="4"/>
+    </row>
+    <row r="243">
+      <c r="Y243" s="4"/>
+    </row>
+    <row r="244">
+      <c r="Y244" s="4"/>
+    </row>
+    <row r="245">
+      <c r="Y245" s="4"/>
+    </row>
+    <row r="246">
+      <c r="Y246" s="4"/>
+    </row>
+    <row r="247">
+      <c r="Y247" s="4"/>
+    </row>
+    <row r="248">
+      <c r="Y248" s="4"/>
+    </row>
+    <row r="249">
+      <c r="Y249" s="4"/>
+    </row>
+    <row r="250">
+      <c r="Y250" s="4"/>
+    </row>
+    <row r="251">
+      <c r="Y251" s="4"/>
+    </row>
+    <row r="252">
+      <c r="Y252" s="4"/>
+    </row>
+    <row r="253">
+      <c r="Y253" s="4"/>
+    </row>
+    <row r="254">
+      <c r="Y254" s="4"/>
+    </row>
+    <row r="255">
+      <c r="Y255" s="4"/>
+    </row>
+    <row r="256">
+      <c r="Y256" s="4"/>
+    </row>
+    <row r="257">
+      <c r="Y257" s="4"/>
+    </row>
+    <row r="258">
+      <c r="Y258" s="4"/>
+    </row>
+    <row r="259">
+      <c r="Y259" s="4"/>
+    </row>
+    <row r="260">
+      <c r="Y260" s="4"/>
+    </row>
+    <row r="261">
+      <c r="Y261" s="4"/>
+    </row>
+    <row r="262">
+      <c r="Y262" s="4"/>
+    </row>
+    <row r="263">
+      <c r="Y263" s="4"/>
+    </row>
+    <row r="264">
+      <c r="Y264" s="4"/>
+    </row>
+    <row r="265">
+      <c r="Y265" s="4"/>
+    </row>
+    <row r="266">
+      <c r="Y266" s="4"/>
+    </row>
+    <row r="267">
+      <c r="Y267" s="4"/>
+    </row>
+    <row r="268">
+      <c r="Y268" s="4"/>
+    </row>
+    <row r="269">
+      <c r="Y269" s="4"/>
+    </row>
+    <row r="270">
+      <c r="Y270" s="4"/>
+    </row>
+    <row r="271">
+      <c r="Y271" s="4"/>
+    </row>
+    <row r="272">
+      <c r="Y272" s="4"/>
+    </row>
+    <row r="273">
+      <c r="Y273" s="4"/>
+    </row>
+    <row r="274">
+      <c r="Y274" s="4"/>
+    </row>
+    <row r="275">
+      <c r="Y275" s="4"/>
+    </row>
+    <row r="276">
+      <c r="Y276" s="4"/>
+    </row>
+    <row r="277">
+      <c r="Y277" s="4"/>
+    </row>
+    <row r="278">
+      <c r="Y278" s="4"/>
+    </row>
+    <row r="279">
+      <c r="Y279" s="4"/>
+    </row>
+    <row r="280">
+      <c r="Y280" s="4"/>
+    </row>
+    <row r="281">
+      <c r="Y281" s="4"/>
+    </row>
+    <row r="282">
+      <c r="Y282" s="4"/>
+    </row>
+    <row r="283">
+      <c r="Y283" s="4"/>
+    </row>
+    <row r="284">
+      <c r="Y284" s="4"/>
+    </row>
+    <row r="285">
+      <c r="Y285" s="4"/>
+    </row>
+    <row r="286">
+      <c r="Y286" s="4"/>
+    </row>
+    <row r="287">
+      <c r="Y287" s="4"/>
+    </row>
+    <row r="288">
+      <c r="Y288" s="4"/>
+    </row>
+    <row r="289">
+      <c r="Y289" s="4"/>
+    </row>
+    <row r="290">
+      <c r="Y290" s="4"/>
+    </row>
+    <row r="291">
+      <c r="Y291" s="4"/>
+    </row>
+    <row r="292">
+      <c r="Y292" s="4"/>
+    </row>
+    <row r="293">
+      <c r="Y293" s="4"/>
+    </row>
+    <row r="294">
+      <c r="Y294" s="4"/>
+    </row>
+    <row r="295">
+      <c r="Y295" s="4"/>
+    </row>
+    <row r="296">
+      <c r="Y296" s="4"/>
+    </row>
+    <row r="297">
+      <c r="Y297" s="4"/>
+    </row>
+    <row r="298">
+      <c r="Y298" s="4"/>
+    </row>
+    <row r="299">
+      <c r="Y299" s="4"/>
+    </row>
+    <row r="300">
+      <c r="Y300" s="4"/>
+    </row>
+    <row r="301">
+      <c r="Y301" s="4"/>
+    </row>
+    <row r="302">
+      <c r="Y302" s="4"/>
+    </row>
+    <row r="303">
+      <c r="Y303" s="4"/>
+    </row>
+    <row r="304">
+      <c r="Y304" s="4"/>
+    </row>
+    <row r="305">
+      <c r="Y305" s="4"/>
+    </row>
+    <row r="306">
+      <c r="Y306" s="4"/>
+    </row>
+    <row r="307">
+      <c r="Y307" s="4"/>
+    </row>
+    <row r="308">
+      <c r="Y308" s="4"/>
+    </row>
+    <row r="309">
+      <c r="Y309" s="4"/>
+    </row>
+    <row r="310">
+      <c r="Y310" s="4"/>
+    </row>
+    <row r="311">
+      <c r="Y311" s="4"/>
+    </row>
+    <row r="312">
+      <c r="Y312" s="4"/>
+    </row>
+    <row r="313">
+      <c r="Y313" s="4"/>
+    </row>
+    <row r="314">
+      <c r="Y314" s="4"/>
+    </row>
+    <row r="315">
+      <c r="Y315" s="4"/>
+    </row>
+    <row r="316">
+      <c r="Y316" s="4"/>
+    </row>
+    <row r="317">
+      <c r="Y317" s="4"/>
+    </row>
+    <row r="318">
+      <c r="Y318" s="4"/>
+    </row>
+    <row r="319">
+      <c r="Y319" s="4"/>
+    </row>
+    <row r="320">
+      <c r="Y320" s="4"/>
+    </row>
+    <row r="321">
+      <c r="Y321" s="4"/>
+    </row>
+    <row r="322">
+      <c r="Y322" s="4"/>
+    </row>
+    <row r="323">
+      <c r="Y323" s="4"/>
+    </row>
+    <row r="324">
+      <c r="Y324" s="4"/>
+    </row>
+    <row r="325">
+      <c r="Y325" s="4"/>
+    </row>
+    <row r="326">
+      <c r="Y326" s="4"/>
+    </row>
+    <row r="327">
+      <c r="Y327" s="4"/>
+    </row>
+    <row r="328">
+      <c r="Y328" s="4"/>
+    </row>
+    <row r="329">
+      <c r="Y329" s="4"/>
+    </row>
+    <row r="330">
+      <c r="Y330" s="4"/>
+    </row>
+    <row r="331">
+      <c r="Y331" s="4"/>
+    </row>
+    <row r="332">
+      <c r="Y332" s="4"/>
+    </row>
+    <row r="333">
+      <c r="Y333" s="4"/>
+    </row>
+    <row r="334">
+      <c r="Y334" s="4"/>
+    </row>
+    <row r="335">
+      <c r="Y335" s="4"/>
+    </row>
+    <row r="336">
+      <c r="Y336" s="4"/>
+    </row>
+    <row r="337">
+      <c r="Y337" s="4"/>
+    </row>
+    <row r="338">
+      <c r="Y338" s="4"/>
+    </row>
+    <row r="339">
+      <c r="Y339" s="4"/>
+    </row>
+    <row r="340">
+      <c r="Y340" s="4"/>
+    </row>
+    <row r="341">
+      <c r="Y341" s="4"/>
+    </row>
+    <row r="342">
+      <c r="Y342" s="4"/>
+    </row>
+    <row r="343">
+      <c r="Y343" s="4"/>
+    </row>
+    <row r="344">
+      <c r="Y344" s="4"/>
+    </row>
+    <row r="345">
+      <c r="Y345" s="4"/>
+    </row>
+    <row r="346">
+      <c r="Y346" s="4"/>
+    </row>
+    <row r="347">
+      <c r="Y347" s="4"/>
+    </row>
+    <row r="348">
+      <c r="Y348" s="4"/>
+    </row>
+    <row r="349">
+      <c r="Y349" s="4"/>
+    </row>
+    <row r="350">
+      <c r="Y350" s="4"/>
+    </row>
+    <row r="351">
+      <c r="Y351" s="4"/>
+    </row>
+    <row r="352">
+      <c r="Y352" s="4"/>
+    </row>
+    <row r="353">
+      <c r="Y353" s="4"/>
+    </row>
+    <row r="354">
+      <c r="Y354" s="4"/>
+    </row>
+    <row r="355">
+      <c r="Y355" s="4"/>
+    </row>
+    <row r="356">
+      <c r="Y356" s="4"/>
+    </row>
+    <row r="357">
+      <c r="Y357" s="4"/>
+    </row>
+    <row r="358">
+      <c r="Y358" s="4"/>
+    </row>
+    <row r="359">
+      <c r="Y359" s="4"/>
+    </row>
+    <row r="360">
+      <c r="Y360" s="4"/>
+    </row>
+    <row r="361">
+      <c r="Y361" s="4"/>
+    </row>
+    <row r="362">
+      <c r="Y362" s="4"/>
+    </row>
+    <row r="363">
+      <c r="Y363" s="4"/>
+    </row>
+    <row r="364">
+      <c r="Y364" s="4"/>
+    </row>
+    <row r="365">
+      <c r="Y365" s="4"/>
+    </row>
+    <row r="366">
+      <c r="Y366" s="4"/>
+    </row>
+    <row r="367">
+      <c r="Y367" s="4"/>
+    </row>
+    <row r="368">
+      <c r="Y368" s="4"/>
+    </row>
+    <row r="369">
+      <c r="Y369" s="4"/>
+    </row>
+    <row r="370">
+      <c r="Y370" s="4"/>
+    </row>
+    <row r="371">
+      <c r="Y371" s="4"/>
+    </row>
+    <row r="372">
+      <c r="Y372" s="4"/>
+    </row>
+    <row r="373">
+      <c r="Y373" s="4"/>
+    </row>
+    <row r="374">
+      <c r="Y374" s="4"/>
+    </row>
+    <row r="375">
+      <c r="Y375" s="4"/>
+    </row>
+    <row r="376">
+      <c r="Y376" s="4"/>
+    </row>
+    <row r="377">
+      <c r="Y377" s="4"/>
+    </row>
+    <row r="378">
+      <c r="Y378" s="4"/>
+    </row>
+    <row r="379">
+      <c r="Y379" s="4"/>
+    </row>
+    <row r="380">
+      <c r="Y380" s="4"/>
+    </row>
+    <row r="381">
+      <c r="Y381" s="4"/>
+    </row>
+    <row r="382">
+      <c r="Y382" s="4"/>
+    </row>
+    <row r="383">
+      <c r="Y383" s="4"/>
+    </row>
+    <row r="384">
+      <c r="Y384" s="4"/>
+    </row>
+    <row r="385">
+      <c r="Y385" s="4"/>
+    </row>
+    <row r="386">
+      <c r="Y386" s="4"/>
+    </row>
+    <row r="387">
+      <c r="Y387" s="4"/>
+    </row>
+    <row r="388">
+      <c r="Y388" s="4"/>
+    </row>
+    <row r="389">
+      <c r="Y389" s="4"/>
+    </row>
+    <row r="390">
+      <c r="Y390" s="4"/>
+    </row>
+    <row r="391">
+      <c r="Y391" s="4"/>
+    </row>
+    <row r="392">
+      <c r="Y392" s="4"/>
+    </row>
+    <row r="393">
+      <c r="Y393" s="4"/>
+    </row>
+    <row r="394">
+      <c r="Y394" s="4"/>
+    </row>
+    <row r="395">
+      <c r="Y395" s="4"/>
+    </row>
+    <row r="396">
+      <c r="Y396" s="4"/>
+    </row>
+    <row r="397">
+      <c r="Y397" s="4"/>
+    </row>
+    <row r="398">
+      <c r="Y398" s="4"/>
+    </row>
+    <row r="399">
+      <c r="Y399" s="4"/>
+    </row>
+    <row r="400">
+      <c r="Y400" s="4"/>
+    </row>
+    <row r="401">
+      <c r="Y401" s="4"/>
+    </row>
+    <row r="402">
+      <c r="Y402" s="4"/>
+    </row>
+    <row r="403">
+      <c r="Y403" s="4"/>
+    </row>
+    <row r="404">
+      <c r="Y404" s="4"/>
+    </row>
+    <row r="405">
+      <c r="Y405" s="4"/>
+    </row>
+    <row r="406">
+      <c r="Y406" s="4"/>
+    </row>
+    <row r="407">
+      <c r="Y407" s="4"/>
+    </row>
+    <row r="408">
+      <c r="Y408" s="4"/>
+    </row>
+    <row r="409">
+      <c r="Y409" s="4"/>
+    </row>
+    <row r="410">
+      <c r="Y410" s="4"/>
+    </row>
+    <row r="411">
+      <c r="Y411" s="4"/>
+    </row>
+    <row r="412">
+      <c r="Y412" s="4"/>
+    </row>
+    <row r="413">
+      <c r="Y413" s="4"/>
+    </row>
+    <row r="414">
+      <c r="Y414" s="4"/>
+    </row>
+    <row r="415">
+      <c r="Y415" s="4"/>
+    </row>
+    <row r="416">
+      <c r="Y416" s="4"/>
+    </row>
+    <row r="417">
+      <c r="Y417" s="4"/>
+    </row>
+    <row r="418">
+      <c r="Y418" s="4"/>
+    </row>
+    <row r="419">
+      <c r="Y419" s="4"/>
+    </row>
+    <row r="420">
+      <c r="Y420" s="4"/>
+    </row>
+    <row r="421">
+      <c r="Y421" s="4"/>
+    </row>
+    <row r="422">
+      <c r="Y422" s="4"/>
+    </row>
+    <row r="423">
+      <c r="Y423" s="4"/>
+    </row>
+    <row r="424">
+      <c r="Y424" s="4"/>
+    </row>
+    <row r="425">
+      <c r="Y425" s="4"/>
+    </row>
+    <row r="426">
+      <c r="Y426" s="4"/>
+    </row>
+    <row r="427">
+      <c r="Y427" s="4"/>
+    </row>
+    <row r="428">
+      <c r="Y428" s="4"/>
+    </row>
+    <row r="429">
+      <c r="Y429" s="4"/>
+    </row>
+    <row r="430">
+      <c r="Y430" s="4"/>
+    </row>
+    <row r="431">
+      <c r="Y431" s="4"/>
+    </row>
+    <row r="432">
+      <c r="Y432" s="4"/>
+    </row>
+    <row r="433">
+      <c r="Y433" s="4"/>
+    </row>
+    <row r="434">
+      <c r="Y434" s="4"/>
+    </row>
+    <row r="435">
+      <c r="Y435" s="4"/>
+    </row>
+    <row r="436">
+      <c r="Y436" s="4"/>
+    </row>
+    <row r="437">
+      <c r="Y437" s="4"/>
+    </row>
+    <row r="438">
+      <c r="Y438" s="4"/>
+    </row>
+    <row r="439">
+      <c r="Y439" s="4"/>
+    </row>
+    <row r="440">
+      <c r="Y440" s="4"/>
+    </row>
+    <row r="441">
+      <c r="Y441" s="4"/>
+    </row>
+    <row r="442">
+      <c r="Y442" s="4"/>
+    </row>
+    <row r="443">
+      <c r="Y443" s="4"/>
+    </row>
+    <row r="444">
+      <c r="Y444" s="4"/>
+    </row>
+    <row r="445">
+      <c r="Y445" s="4"/>
+    </row>
+    <row r="446">
+      <c r="Y446" s="4"/>
+    </row>
+    <row r="447">
+      <c r="Y447" s="4"/>
+    </row>
+    <row r="448">
+      <c r="Y448" s="4"/>
+    </row>
+    <row r="449">
+      <c r="Y449" s="4"/>
+    </row>
+    <row r="450">
+      <c r="Y450" s="4"/>
+    </row>
+    <row r="451">
+      <c r="Y451" s="4"/>
+    </row>
+    <row r="452">
+      <c r="Y452" s="4"/>
+    </row>
+    <row r="453">
+      <c r="Y453" s="4"/>
+    </row>
+    <row r="454">
+      <c r="Y454" s="4"/>
+    </row>
+    <row r="455">
+      <c r="Y455" s="4"/>
+    </row>
+    <row r="456">
+      <c r="Y456" s="4"/>
+    </row>
+    <row r="457">
+      <c r="Y457" s="4"/>
+    </row>
+    <row r="458">
+      <c r="Y458" s="4"/>
+    </row>
+    <row r="459">
+      <c r="Y459" s="4"/>
+    </row>
+    <row r="460">
+      <c r="Y460" s="4"/>
+    </row>
+    <row r="461">
+      <c r="Y461" s="4"/>
+    </row>
+    <row r="462">
+      <c r="Y462" s="4"/>
+    </row>
+    <row r="463">
+      <c r="Y463" s="4"/>
+    </row>
+    <row r="464">
+      <c r="Y464" s="4"/>
+    </row>
+    <row r="465">
+      <c r="Y465" s="4"/>
+    </row>
+    <row r="466">
+      <c r="Y466" s="4"/>
+    </row>
+    <row r="467">
+      <c r="Y467" s="4"/>
+    </row>
+    <row r="468">
+      <c r="Y468" s="4"/>
+    </row>
+    <row r="469">
+      <c r="Y469" s="4"/>
+    </row>
+    <row r="470">
+      <c r="Y470" s="4"/>
+    </row>
+    <row r="471">
+      <c r="Y471" s="4"/>
+    </row>
+    <row r="472">
+      <c r="Y472" s="4"/>
+    </row>
+    <row r="473">
+      <c r="Y473" s="4"/>
+    </row>
+    <row r="474">
+      <c r="Y474" s="4"/>
+    </row>
+    <row r="475">
+      <c r="Y475" s="4"/>
+    </row>
+    <row r="476">
+      <c r="Y476" s="4"/>
+    </row>
+    <row r="477">
+      <c r="Y477" s="4"/>
+    </row>
+    <row r="478">
+      <c r="Y478" s="4"/>
+    </row>
+    <row r="479">
+      <c r="Y479" s="4"/>
+    </row>
+    <row r="480">
+      <c r="Y480" s="4"/>
+    </row>
+    <row r="481">
+      <c r="Y481" s="4"/>
+    </row>
+    <row r="482">
+      <c r="Y482" s="4"/>
+    </row>
+    <row r="483">
+      <c r="Y483" s="4"/>
+    </row>
+    <row r="484">
+      <c r="Y484" s="4"/>
+    </row>
+    <row r="485">
+      <c r="Y485" s="4"/>
+    </row>
+    <row r="486">
+      <c r="Y486" s="4"/>
+    </row>
+    <row r="487">
+      <c r="Y487" s="4"/>
+    </row>
+    <row r="488">
+      <c r="Y488" s="4"/>
+    </row>
+    <row r="489">
+      <c r="Y489" s="4"/>
+    </row>
+    <row r="490">
+      <c r="Y490" s="4"/>
+    </row>
+    <row r="491">
+      <c r="Y491" s="4"/>
+    </row>
+    <row r="492">
+      <c r="Y492" s="4"/>
+    </row>
+    <row r="493">
+      <c r="Y493" s="4"/>
+    </row>
+    <row r="494">
+      <c r="Y494" s="4"/>
+    </row>
+    <row r="495">
+      <c r="Y495" s="4"/>
+    </row>
+    <row r="496">
+      <c r="Y496" s="4"/>
+    </row>
+    <row r="497">
+      <c r="Y497" s="4"/>
+    </row>
+    <row r="498">
+      <c r="Y498" s="4"/>
+    </row>
+    <row r="499">
+      <c r="Y499" s="4"/>
+    </row>
+    <row r="500">
+      <c r="Y500" s="4"/>
+    </row>
+    <row r="501">
+      <c r="Y501" s="4"/>
+    </row>
+    <row r="502">
+      <c r="Y502" s="4"/>
+    </row>
+    <row r="503">
+      <c r="Y503" s="4"/>
+    </row>
+    <row r="504">
+      <c r="Y504" s="4"/>
+    </row>
+    <row r="505">
+      <c r="Y505" s="4"/>
+    </row>
+    <row r="506">
+      <c r="Y506" s="4"/>
+    </row>
+    <row r="507">
+      <c r="Y507" s="4"/>
+    </row>
+    <row r="508">
+      <c r="Y508" s="4"/>
+    </row>
+    <row r="509">
+      <c r="Y509" s="4"/>
+    </row>
+    <row r="510">
+      <c r="Y510" s="4"/>
+    </row>
+    <row r="511">
+      <c r="Y511" s="4"/>
+    </row>
+    <row r="512">
+      <c r="Y512" s="4"/>
+    </row>
+    <row r="513">
+      <c r="Y513" s="4"/>
+    </row>
+    <row r="514">
+      <c r="Y514" s="4"/>
+    </row>
+    <row r="515">
+      <c r="Y515" s="4"/>
+    </row>
+    <row r="516">
+      <c r="Y516" s="4"/>
+    </row>
+    <row r="517">
+      <c r="Y517" s="4"/>
+    </row>
+    <row r="518">
+      <c r="Y518" s="4"/>
+    </row>
+    <row r="519">
+      <c r="Y519" s="4"/>
+    </row>
+    <row r="520">
+      <c r="Y520" s="4"/>
+    </row>
+    <row r="521">
+      <c r="Y521" s="4"/>
+    </row>
+    <row r="522">
+      <c r="Y522" s="4"/>
+    </row>
+    <row r="523">
+      <c r="Y523" s="4"/>
+    </row>
+    <row r="524">
+      <c r="Y524" s="4"/>
+    </row>
+    <row r="525">
+      <c r="Y525" s="4"/>
+    </row>
+    <row r="526">
+      <c r="Y526" s="4"/>
+    </row>
+    <row r="527">
+      <c r="Y527" s="4"/>
+    </row>
+    <row r="528">
+      <c r="Y528" s="4"/>
+    </row>
+    <row r="529">
+      <c r="Y529" s="4"/>
+    </row>
+    <row r="530">
+      <c r="Y530" s="4"/>
+    </row>
+    <row r="531">
+      <c r="Y531" s="4"/>
+    </row>
+    <row r="532">
+      <c r="Y532" s="4"/>
+    </row>
+    <row r="533">
+      <c r="Y533" s="4"/>
+    </row>
+    <row r="534">
+      <c r="Y534" s="4"/>
+    </row>
+    <row r="535">
+      <c r="Y535" s="4"/>
+    </row>
+    <row r="536">
+      <c r="Y536" s="4"/>
+    </row>
+    <row r="537">
+      <c r="Y537" s="4"/>
+    </row>
+    <row r="538">
+      <c r="Y538" s="4"/>
+    </row>
+    <row r="539">
+      <c r="Y539" s="4"/>
+    </row>
+    <row r="540">
+      <c r="Y540" s="4"/>
+    </row>
+    <row r="541">
+      <c r="Y541" s="4"/>
+    </row>
+    <row r="542">
+      <c r="Y542" s="4"/>
+    </row>
+    <row r="543">
+      <c r="Y543" s="4"/>
+    </row>
+    <row r="544">
+      <c r="Y544" s="4"/>
+    </row>
+    <row r="545">
+      <c r="Y545" s="4"/>
+    </row>
+    <row r="546">
+      <c r="Y546" s="4"/>
+    </row>
+    <row r="547">
+      <c r="Y547" s="4"/>
+    </row>
+    <row r="548">
+      <c r="Y548" s="4"/>
+    </row>
+    <row r="549">
+      <c r="Y549" s="4"/>
+    </row>
+    <row r="550">
+      <c r="Y550" s="4"/>
+    </row>
+    <row r="551">
+      <c r="Y551" s="4"/>
+    </row>
+    <row r="552">
+      <c r="Y552" s="4"/>
+    </row>
+    <row r="553">
+      <c r="Y553" s="4"/>
+    </row>
+    <row r="554">
+      <c r="Y554" s="4"/>
+    </row>
+    <row r="555">
+      <c r="Y555" s="4"/>
+    </row>
+    <row r="556">
+      <c r="Y556" s="4"/>
+    </row>
+    <row r="557">
+      <c r="Y557" s="4"/>
+    </row>
+    <row r="558">
+      <c r="Y558" s="4"/>
+    </row>
+    <row r="559">
+      <c r="Y559" s="4"/>
+    </row>
+    <row r="560">
+      <c r="Y560" s="4"/>
+    </row>
+    <row r="561">
+      <c r="Y561" s="4"/>
+    </row>
+    <row r="562">
+      <c r="Y562" s="4"/>
+    </row>
+    <row r="563">
+      <c r="Y563" s="4"/>
+    </row>
+    <row r="564">
+      <c r="Y564" s="4"/>
+    </row>
+    <row r="565">
+      <c r="Y565" s="4"/>
+    </row>
+    <row r="566">
+      <c r="Y566" s="4"/>
+    </row>
+    <row r="567">
+      <c r="Y567" s="4"/>
+    </row>
+    <row r="568">
+      <c r="Y568" s="4"/>
+    </row>
+    <row r="569">
+      <c r="Y569" s="4"/>
+    </row>
+    <row r="570">
+      <c r="Y570" s="4"/>
+    </row>
+    <row r="571">
+      <c r="Y571" s="4"/>
+    </row>
+    <row r="572">
+      <c r="Y572" s="4"/>
+    </row>
+    <row r="573">
+      <c r="Y573" s="4"/>
+    </row>
+    <row r="574">
+      <c r="Y574" s="4"/>
+    </row>
+    <row r="575">
+      <c r="Y575" s="4"/>
+    </row>
+    <row r="576">
+      <c r="Y576" s="4"/>
+    </row>
+    <row r="577">
+      <c r="Y577" s="4"/>
+    </row>
+    <row r="578">
+      <c r="Y578" s="4"/>
+    </row>
+    <row r="579">
+      <c r="Y579" s="4"/>
+    </row>
+    <row r="580">
+      <c r="Y580" s="4"/>
+    </row>
+    <row r="581">
+      <c r="Y581" s="4"/>
+    </row>
+    <row r="582">
+      <c r="Y582" s="4"/>
+    </row>
+    <row r="583">
+      <c r="Y583" s="4"/>
+    </row>
+    <row r="584">
+      <c r="Y584" s="4"/>
+    </row>
+    <row r="585">
+      <c r="Y585" s="4"/>
+    </row>
+    <row r="586">
+      <c r="Y586" s="4"/>
+    </row>
+    <row r="587">
+      <c r="Y587" s="4"/>
+    </row>
+    <row r="588">
+      <c r="Y588" s="4"/>
+    </row>
+    <row r="589">
+      <c r="Y589" s="4"/>
+    </row>
+    <row r="590">
+      <c r="Y590" s="4"/>
+    </row>
+    <row r="591">
+      <c r="Y591" s="4"/>
+    </row>
+    <row r="592">
+      <c r="Y592" s="4"/>
+    </row>
+    <row r="593">
+      <c r="Y593" s="4"/>
+    </row>
+    <row r="594">
+      <c r="Y594" s="4"/>
+    </row>
+    <row r="595">
+      <c r="Y595" s="4"/>
+    </row>
+    <row r="596">
+      <c r="Y596" s="4"/>
+    </row>
+    <row r="597">
+      <c r="Y597" s="4"/>
+    </row>
+    <row r="598">
+      <c r="Y598" s="4"/>
+    </row>
+    <row r="599">
+      <c r="Y599" s="4"/>
+    </row>
+    <row r="600">
+      <c r="Y600" s="4"/>
+    </row>
+    <row r="601">
+      <c r="Y601" s="4"/>
+    </row>
+    <row r="602">
+      <c r="Y602" s="4"/>
+    </row>
+    <row r="603">
+      <c r="Y603" s="4"/>
+    </row>
+    <row r="604">
+      <c r="Y604" s="4"/>
+    </row>
+    <row r="605">
+      <c r="Y605" s="4"/>
+    </row>
+    <row r="606">
+      <c r="Y606" s="4"/>
+    </row>
+    <row r="607">
+      <c r="Y607" s="4"/>
+    </row>
+    <row r="608">
+      <c r="Y608" s="4"/>
+    </row>
+    <row r="609">
+      <c r="Y609" s="4"/>
+    </row>
+    <row r="610">
+      <c r="Y610" s="4"/>
+    </row>
+    <row r="611">
+      <c r="Y611" s="4"/>
+    </row>
+    <row r="612">
+      <c r="Y612" s="4"/>
+    </row>
+    <row r="613">
+      <c r="Y613" s="4"/>
+    </row>
+    <row r="614">
+      <c r="Y614" s="4"/>
+    </row>
+    <row r="615">
+      <c r="Y615" s="4"/>
+    </row>
+    <row r="616">
+      <c r="Y616" s="4"/>
+    </row>
+    <row r="617">
+      <c r="Y617" s="4"/>
+    </row>
+    <row r="618">
+      <c r="Y618" s="4"/>
+    </row>
+    <row r="619">
+      <c r="Y619" s="4"/>
+    </row>
+    <row r="620">
+      <c r="Y620" s="4"/>
+    </row>
+    <row r="621">
+      <c r="Y621" s="4"/>
+    </row>
+    <row r="622">
+      <c r="Y622" s="4"/>
+    </row>
+    <row r="623">
+      <c r="Y623" s="4"/>
+    </row>
+    <row r="624">
+      <c r="Y624" s="4"/>
+    </row>
+    <row r="625">
+      <c r="Y625" s="4"/>
+    </row>
+    <row r="626">
+      <c r="Y626" s="4"/>
+    </row>
+    <row r="627">
+      <c r="Y627" s="4"/>
+    </row>
+    <row r="628">
+      <c r="Y628" s="4"/>
+    </row>
+    <row r="629">
+      <c r="Y629" s="4"/>
+    </row>
+    <row r="630">
+      <c r="Y630" s="4"/>
+    </row>
+    <row r="631">
+      <c r="Y631" s="4"/>
+    </row>
+    <row r="632">
+      <c r="Y632" s="4"/>
+    </row>
+    <row r="633">
+      <c r="Y633" s="4"/>
+    </row>
+    <row r="634">
+      <c r="Y634" s="4"/>
+    </row>
+    <row r="635">
+      <c r="Y635" s="4"/>
+    </row>
+    <row r="636">
+      <c r="Y636" s="4"/>
+    </row>
+    <row r="637">
+      <c r="Y637" s="4"/>
+    </row>
+    <row r="638">
+      <c r="Y638" s="4"/>
+    </row>
+    <row r="639">
+      <c r="Y639" s="4"/>
+    </row>
+    <row r="640">
+      <c r="Y640" s="4"/>
+    </row>
+    <row r="641">
+      <c r="Y641" s="4"/>
+    </row>
+    <row r="642">
+      <c r="Y642" s="4"/>
+    </row>
+    <row r="643">
+      <c r="Y643" s="4"/>
+    </row>
+    <row r="644">
+      <c r="Y644" s="4"/>
+    </row>
+    <row r="645">
+      <c r="Y645" s="4"/>
+    </row>
+    <row r="646">
+      <c r="Y646" s="4"/>
+    </row>
+    <row r="647">
+      <c r="Y647" s="4"/>
+    </row>
+    <row r="648">
+      <c r="Y648" s="4"/>
+    </row>
+    <row r="649">
+      <c r="Y649" s="4"/>
+    </row>
+    <row r="650">
+      <c r="Y650" s="4"/>
+    </row>
+    <row r="651">
+      <c r="Y651" s="4"/>
+    </row>
+    <row r="652">
+      <c r="Y652" s="4"/>
+    </row>
+    <row r="653">
+      <c r="Y653" s="4"/>
+    </row>
+    <row r="654">
+      <c r="Y654" s="4"/>
+    </row>
+    <row r="655">
+      <c r="Y655" s="4"/>
+    </row>
+    <row r="656">
+      <c r="Y656" s="4"/>
+    </row>
+    <row r="657">
+      <c r="Y657" s="4"/>
+    </row>
+    <row r="658">
+      <c r="Y658" s="4"/>
+    </row>
+    <row r="659">
+      <c r="Y659" s="4"/>
+    </row>
+    <row r="660">
+      <c r="Y660" s="4"/>
+    </row>
+    <row r="661">
+      <c r="Y661" s="4"/>
+    </row>
+    <row r="662">
+      <c r="Y662" s="4"/>
+    </row>
+    <row r="663">
+      <c r="Y663" s="4"/>
+    </row>
+    <row r="664">
+      <c r="Y664" s="4"/>
+    </row>
+    <row r="665">
+      <c r="Y665" s="4"/>
+    </row>
+    <row r="666">
+      <c r="Y666" s="4"/>
+    </row>
+    <row r="667">
+      <c r="Y667" s="4"/>
+    </row>
+    <row r="668">
+      <c r="Y668" s="4"/>
+    </row>
+    <row r="669">
+      <c r="Y669" s="4"/>
+    </row>
+    <row r="670">
+      <c r="Y670" s="4"/>
+    </row>
+    <row r="671">
+      <c r="Y671" s="4"/>
+    </row>
+    <row r="672">
+      <c r="Y672" s="4"/>
+    </row>
+    <row r="673">
+      <c r="Y673" s="4"/>
+    </row>
+    <row r="674">
+      <c r="Y674" s="4"/>
+    </row>
+    <row r="675">
+      <c r="Y675" s="4"/>
+    </row>
+    <row r="676">
+      <c r="Y676" s="4"/>
+    </row>
+    <row r="677">
+      <c r="Y677" s="4"/>
+    </row>
+    <row r="678">
+      <c r="Y678" s="4"/>
+    </row>
+    <row r="679">
+      <c r="Y679" s="4"/>
+    </row>
+    <row r="680">
+      <c r="Y680" s="4"/>
+    </row>
+    <row r="681">
+      <c r="Y681" s="4"/>
+    </row>
+    <row r="682">
+      <c r="Y682" s="4"/>
+    </row>
+    <row r="683">
+      <c r="Y683" s="4"/>
+    </row>
+    <row r="684">
+      <c r="Y684" s="4"/>
+    </row>
+    <row r="685">
+      <c r="Y685" s="4"/>
+    </row>
+    <row r="686">
+      <c r="Y686" s="4"/>
+    </row>
+    <row r="687">
+      <c r="Y687" s="4"/>
+    </row>
+    <row r="688">
+      <c r="Y688" s="4"/>
+    </row>
+    <row r="689">
+      <c r="Y689" s="4"/>
+    </row>
+    <row r="690">
+      <c r="Y690" s="4"/>
+    </row>
+    <row r="691">
+      <c r="Y691" s="4"/>
+    </row>
+    <row r="692">
+      <c r="Y692" s="4"/>
+    </row>
+    <row r="693">
+      <c r="Y693" s="4"/>
+    </row>
+    <row r="694">
+      <c r="Y694" s="4"/>
+    </row>
+    <row r="695">
+      <c r="Y695" s="4"/>
+    </row>
+    <row r="696">
+      <c r="Y696" s="4"/>
+    </row>
+    <row r="697">
+      <c r="Y697" s="4"/>
+    </row>
+    <row r="698">
+      <c r="Y698" s="4"/>
+    </row>
+    <row r="699">
+      <c r="Y699" s="4"/>
+    </row>
+    <row r="700">
+      <c r="Y700" s="4"/>
+    </row>
+    <row r="701">
+      <c r="Y701" s="4"/>
+    </row>
+    <row r="702">
+      <c r="Y702" s="4"/>
+    </row>
+    <row r="703">
+      <c r="Y703" s="4"/>
+    </row>
+    <row r="704">
+      <c r="Y704" s="4"/>
+    </row>
+    <row r="705">
+      <c r="Y705" s="4"/>
+    </row>
+    <row r="706">
+      <c r="Y706" s="4"/>
+    </row>
+    <row r="707">
+      <c r="Y707" s="4"/>
+    </row>
+    <row r="708">
+      <c r="Y708" s="4"/>
+    </row>
+    <row r="709">
+      <c r="Y709" s="4"/>
+    </row>
+    <row r="710">
+      <c r="Y710" s="4"/>
+    </row>
+    <row r="711">
+      <c r="Y711" s="4"/>
+    </row>
+    <row r="712">
+      <c r="Y712" s="4"/>
+    </row>
+    <row r="713">
+      <c r="Y713" s="4"/>
+    </row>
+    <row r="714">
+      <c r="Y714" s="4"/>
+    </row>
+    <row r="715">
+      <c r="Y715" s="4"/>
+    </row>
+    <row r="716">
+      <c r="Y716" s="4"/>
+    </row>
+    <row r="717">
+      <c r="Y717" s="4"/>
+    </row>
+    <row r="718">
+      <c r="Y718" s="4"/>
+    </row>
+    <row r="719">
+      <c r="Y719" s="4"/>
+    </row>
+    <row r="720">
+      <c r="Y720" s="4"/>
+    </row>
+    <row r="721">
+      <c r="Y721" s="4"/>
+    </row>
+    <row r="722">
+      <c r="Y722" s="4"/>
+    </row>
+    <row r="723">
+      <c r="Y723" s="4"/>
+    </row>
+    <row r="724">
+      <c r="Y724" s="4"/>
+    </row>
+    <row r="725">
+      <c r="Y725" s="4"/>
+    </row>
+    <row r="726">
+      <c r="Y726" s="4"/>
+    </row>
+    <row r="727">
+      <c r="Y727" s="4"/>
+    </row>
+    <row r="728">
+      <c r="Y728" s="4"/>
+    </row>
+    <row r="729">
+      <c r="Y729" s="4"/>
+    </row>
+    <row r="730">
+      <c r="Y730" s="4"/>
+    </row>
+    <row r="731">
+      <c r="Y731" s="4"/>
+    </row>
+    <row r="732">
+      <c r="Y732" s="4"/>
+    </row>
+    <row r="733">
+      <c r="Y733" s="4"/>
+    </row>
+    <row r="734">
+      <c r="Y734" s="4"/>
+    </row>
+    <row r="735">
+      <c r="Y735" s="4"/>
+    </row>
+    <row r="736">
+      <c r="Y736" s="4"/>
+    </row>
+    <row r="737">
+      <c r="Y737" s="4"/>
+    </row>
+    <row r="738">
+      <c r="Y738" s="4"/>
+    </row>
+    <row r="739">
+      <c r="Y739" s="4"/>
+    </row>
+    <row r="740">
+      <c r="Y740" s="4"/>
+    </row>
+    <row r="741">
+      <c r="Y741" s="4"/>
+    </row>
+    <row r="742">
+      <c r="Y742" s="4"/>
+    </row>
+    <row r="743">
+      <c r="Y743" s="4"/>
+    </row>
+    <row r="744">
+      <c r="Y744" s="4"/>
+    </row>
+    <row r="745">
+      <c r="Y745" s="4"/>
+    </row>
+    <row r="746">
+      <c r="Y746" s="4"/>
+    </row>
+    <row r="747">
+      <c r="Y747" s="4"/>
+    </row>
+    <row r="748">
+      <c r="Y748" s="4"/>
+    </row>
+    <row r="749">
+      <c r="Y749" s="4"/>
+    </row>
+    <row r="750">
+      <c r="Y750" s="4"/>
+    </row>
+    <row r="751">
+      <c r="Y751" s="4"/>
+    </row>
+    <row r="752">
+      <c r="Y752" s="4"/>
+    </row>
+    <row r="753">
+      <c r="Y753" s="4"/>
+    </row>
+    <row r="754">
+      <c r="Y754" s="4"/>
+    </row>
+    <row r="755">
+      <c r="Y755" s="4"/>
+    </row>
+    <row r="756">
+      <c r="Y756" s="4"/>
+    </row>
+    <row r="757">
+      <c r="Y757" s="4"/>
+    </row>
+    <row r="758">
+      <c r="Y758" s="4"/>
+    </row>
+    <row r="759">
+      <c r="Y759" s="4"/>
+    </row>
+    <row r="760">
+      <c r="Y760" s="4"/>
+    </row>
+    <row r="761">
+      <c r="Y761" s="4"/>
+    </row>
+    <row r="762">
+      <c r="Y762" s="4"/>
+    </row>
+    <row r="763">
+      <c r="Y763" s="4"/>
+    </row>
+    <row r="764">
+      <c r="Y764" s="4"/>
+    </row>
+    <row r="765">
+      <c r="Y765" s="4"/>
+    </row>
+    <row r="766">
+      <c r="Y766" s="4"/>
+    </row>
+    <row r="767">
+      <c r="Y767" s="4"/>
+    </row>
+    <row r="768">
+      <c r="Y768" s="4"/>
+    </row>
+    <row r="769">
+      <c r="Y769" s="4"/>
+    </row>
+    <row r="770">
+      <c r="Y770" s="4"/>
+    </row>
+    <row r="771">
+      <c r="Y771" s="4"/>
+    </row>
+    <row r="772">
+      <c r="Y772" s="4"/>
+    </row>
+    <row r="773">
+      <c r="Y773" s="4"/>
+    </row>
+    <row r="774">
+      <c r="Y774" s="4"/>
+    </row>
+    <row r="775">
+      <c r="Y775" s="4"/>
+    </row>
+    <row r="776">
+      <c r="Y776" s="4"/>
+    </row>
+    <row r="777">
+      <c r="Y777" s="4"/>
+    </row>
+    <row r="778">
+      <c r="Y778" s="4"/>
+    </row>
+    <row r="779">
+      <c r="Y779" s="4"/>
+    </row>
+    <row r="780">
+      <c r="Y780" s="4"/>
+    </row>
+    <row r="781">
+      <c r="Y781" s="4"/>
+    </row>
+    <row r="782">
+      <c r="Y782" s="4"/>
+    </row>
+    <row r="783">
+      <c r="Y783" s="4"/>
+    </row>
+    <row r="784">
+      <c r="Y784" s="4"/>
+    </row>
+    <row r="785">
+      <c r="Y785" s="4"/>
+    </row>
+    <row r="786">
+      <c r="Y786" s="4"/>
+    </row>
+    <row r="787">
+      <c r="Y787" s="4"/>
+    </row>
+    <row r="788">
+      <c r="Y788" s="4"/>
+    </row>
+    <row r="789">
+      <c r="Y789" s="4"/>
+    </row>
+    <row r="790">
+      <c r="Y790" s="4"/>
+    </row>
+    <row r="791">
+      <c r="Y791" s="4"/>
+    </row>
+    <row r="792">
+      <c r="Y792" s="4"/>
+    </row>
+    <row r="793">
+      <c r="Y793" s="4"/>
+    </row>
+    <row r="794">
+      <c r="Y794" s="4"/>
+    </row>
+    <row r="795">
+      <c r="Y795" s="4"/>
+    </row>
+    <row r="796">
+      <c r="Y796" s="4"/>
+    </row>
+    <row r="797">
+      <c r="Y797" s="4"/>
+    </row>
+    <row r="798">
+      <c r="Y798" s="4"/>
+    </row>
+    <row r="799">
+      <c r="Y799" s="4"/>
+    </row>
+    <row r="800">
+      <c r="Y800" s="4"/>
+    </row>
+    <row r="801">
+      <c r="Y801" s="4"/>
+    </row>
+    <row r="802">
+      <c r="Y802" s="4"/>
+    </row>
+    <row r="803">
+      <c r="Y803" s="4"/>
+    </row>
+    <row r="804">
+      <c r="Y804" s="4"/>
+    </row>
+    <row r="805">
+      <c r="Y805" s="4"/>
+    </row>
+    <row r="806">
+      <c r="Y806" s="4"/>
+    </row>
+    <row r="807">
+      <c r="Y807" s="4"/>
+    </row>
+    <row r="808">
+      <c r="Y808" s="4"/>
+    </row>
+    <row r="809">
+      <c r="Y809" s="4"/>
+    </row>
+    <row r="810">
+      <c r="Y810" s="4"/>
+    </row>
+    <row r="811">
+      <c r="Y811" s="4"/>
+    </row>
+    <row r="812">
+      <c r="Y812" s="4"/>
+    </row>
+    <row r="813">
+      <c r="Y813" s="4"/>
+    </row>
+    <row r="814">
+      <c r="Y814" s="4"/>
+    </row>
+    <row r="815">
+      <c r="Y815" s="4"/>
+    </row>
+    <row r="816">
+      <c r="Y816" s="4"/>
+    </row>
+    <row r="817">
+      <c r="Y817" s="4"/>
+    </row>
+    <row r="818">
+      <c r="Y818" s="4"/>
+    </row>
+    <row r="819">
+      <c r="Y819" s="4"/>
+    </row>
+    <row r="820">
+      <c r="Y820" s="4"/>
+    </row>
+    <row r="821">
+      <c r="Y821" s="4"/>
+    </row>
+    <row r="822">
+      <c r="Y822" s="4"/>
+    </row>
+    <row r="823">
+      <c r="Y823" s="4"/>
+    </row>
+    <row r="824">
+      <c r="Y824" s="4"/>
+    </row>
+    <row r="825">
+      <c r="Y825" s="4"/>
+    </row>
+    <row r="826">
+      <c r="Y826" s="4"/>
+    </row>
+    <row r="827">
+      <c r="Y827" s="4"/>
+    </row>
+    <row r="828">
+      <c r="Y828" s="4"/>
+    </row>
+    <row r="829">
+      <c r="Y829" s="4"/>
+    </row>
+    <row r="830">
+      <c r="Y830" s="4"/>
+    </row>
+    <row r="831">
+      <c r="Y831" s="4"/>
+    </row>
+    <row r="832">
+      <c r="Y832" s="4"/>
+    </row>
+    <row r="833">
+      <c r="Y833" s="4"/>
+    </row>
+    <row r="834">
+      <c r="Y834" s="4"/>
+    </row>
+    <row r="835">
+      <c r="Y835" s="4"/>
+    </row>
+    <row r="836">
+      <c r="Y836" s="4"/>
+    </row>
+    <row r="837">
+      <c r="Y837" s="4"/>
+    </row>
+    <row r="838">
+      <c r="Y838" s="4"/>
+    </row>
+    <row r="839">
+      <c r="Y839" s="4"/>
+    </row>
+    <row r="840">
+      <c r="Y840" s="4"/>
+    </row>
+    <row r="841">
+      <c r="Y841" s="4"/>
+    </row>
+    <row r="842">
+      <c r="Y842" s="4"/>
+    </row>
+    <row r="843">
+      <c r="Y843" s="4"/>
+    </row>
+    <row r="844">
+      <c r="Y844" s="4"/>
+    </row>
+    <row r="845">
+      <c r="Y845" s="4"/>
+    </row>
+    <row r="846">
+      <c r="Y846" s="4"/>
+    </row>
+    <row r="847">
+      <c r="Y847" s="4"/>
+    </row>
+    <row r="848">
+      <c r="Y848" s="4"/>
+    </row>
+    <row r="849">
+      <c r="Y849" s="4"/>
+    </row>
+    <row r="850">
+      <c r="Y850" s="4"/>
+    </row>
+    <row r="851">
+      <c r="Y851" s="4"/>
+    </row>
+    <row r="852">
+      <c r="Y852" s="4"/>
+    </row>
+    <row r="853">
+      <c r="Y853" s="4"/>
+    </row>
+    <row r="854">
+      <c r="Y854" s="4"/>
+    </row>
+    <row r="855">
+      <c r="Y855" s="4"/>
+    </row>
+    <row r="856">
+      <c r="Y856" s="4"/>
+    </row>
+    <row r="857">
+      <c r="Y857" s="4"/>
+    </row>
+    <row r="858">
+      <c r="Y858" s="4"/>
+    </row>
+    <row r="859">
+      <c r="Y859" s="4"/>
+    </row>
+    <row r="860">
+      <c r="Y860" s="4"/>
+    </row>
+    <row r="861">
+      <c r="Y861" s="4"/>
+    </row>
+    <row r="862">
+      <c r="Y862" s="4"/>
+    </row>
+    <row r="863">
+      <c r="Y863" s="4"/>
+    </row>
+    <row r="864">
+      <c r="Y864" s="4"/>
+    </row>
+    <row r="865">
+      <c r="Y865" s="4"/>
+    </row>
+    <row r="866">
+      <c r="Y866" s="4"/>
+    </row>
+    <row r="867">
+      <c r="Y867" s="4"/>
+    </row>
+    <row r="868">
+      <c r="Y868" s="4"/>
+    </row>
+    <row r="869">
+      <c r="Y869" s="4"/>
+    </row>
+    <row r="870">
+      <c r="Y870" s="4"/>
+    </row>
+    <row r="871">
+      <c r="Y871" s="4"/>
+    </row>
+    <row r="872">
+      <c r="Y872" s="4"/>
+    </row>
+    <row r="873">
+      <c r="Y873" s="4"/>
+    </row>
+    <row r="874">
+      <c r="Y874" s="4"/>
+    </row>
+    <row r="875">
+      <c r="Y875" s="4"/>
+    </row>
+    <row r="876">
+      <c r="Y876" s="4"/>
+    </row>
+    <row r="877">
+      <c r="Y877" s="4"/>
+    </row>
+    <row r="878">
+      <c r="Y878" s="4"/>
+    </row>
+    <row r="879">
+      <c r="Y879" s="4"/>
+    </row>
+    <row r="880">
+      <c r="Y880" s="4"/>
+    </row>
+    <row r="881">
+      <c r="Y881" s="4"/>
+    </row>
+    <row r="882">
+      <c r="Y882" s="4"/>
+    </row>
+    <row r="883">
+      <c r="Y883" s="4"/>
+    </row>
+    <row r="884">
+      <c r="Y884" s="4"/>
+    </row>
+    <row r="885">
+      <c r="Y885" s="4"/>
+    </row>
+    <row r="886">
+      <c r="Y886" s="4"/>
+    </row>
+    <row r="887">
+      <c r="Y887" s="4"/>
+    </row>
+    <row r="888">
+      <c r="Y888" s="4"/>
+    </row>
+    <row r="889">
+      <c r="Y889" s="4"/>
+    </row>
+    <row r="890">
+      <c r="Y890" s="4"/>
+    </row>
+    <row r="891">
+      <c r="Y891" s="4"/>
+    </row>
+    <row r="892">
+      <c r="Y892" s="4"/>
+    </row>
+    <row r="893">
+      <c r="Y893" s="4"/>
+    </row>
+    <row r="894">
+      <c r="Y894" s="4"/>
+    </row>
+    <row r="895">
+      <c r="Y895" s="4"/>
+    </row>
+    <row r="896">
+      <c r="Y896" s="4"/>
+    </row>
+    <row r="897">
+      <c r="Y897" s="4"/>
+    </row>
+    <row r="898">
+      <c r="Y898" s="4"/>
+    </row>
+    <row r="899">
+      <c r="Y899" s="4"/>
+    </row>
+    <row r="900">
+      <c r="Y900" s="4"/>
+    </row>
+    <row r="901">
+      <c r="Y901" s="4"/>
+    </row>
+    <row r="902">
+      <c r="Y902" s="4"/>
+    </row>
+    <row r="903">
+      <c r="Y903" s="4"/>
+    </row>
+    <row r="904">
+      <c r="Y904" s="4"/>
+    </row>
+    <row r="905">
+      <c r="Y905" s="4"/>
+    </row>
+    <row r="906">
+      <c r="Y906" s="4"/>
+    </row>
+    <row r="907">
+      <c r="Y907" s="4"/>
+    </row>
+    <row r="908">
+      <c r="Y908" s="4"/>
+    </row>
+    <row r="909">
+      <c r="Y909" s="4"/>
+    </row>
+    <row r="910">
+      <c r="Y910" s="4"/>
+    </row>
+    <row r="911">
+      <c r="Y911" s="4"/>
+    </row>
+    <row r="912">
+      <c r="Y912" s="4"/>
+    </row>
+    <row r="913">
+      <c r="Y913" s="4"/>
+    </row>
+    <row r="914">
+      <c r="Y914" s="4"/>
+    </row>
+    <row r="915">
+      <c r="Y915" s="4"/>
+    </row>
+    <row r="916">
+      <c r="Y916" s="4"/>
+    </row>
+    <row r="917">
+      <c r="Y917" s="4"/>
+    </row>
+    <row r="918">
+      <c r="Y918" s="4"/>
+    </row>
+    <row r="919">
+      <c r="Y919" s="4"/>
+    </row>
+    <row r="920">
+      <c r="Y920" s="4"/>
+    </row>
+    <row r="921">
+      <c r="Y921" s="4"/>
+    </row>
+    <row r="922">
+      <c r="Y922" s="4"/>
+    </row>
+    <row r="923">
+      <c r="Y923" s="4"/>
+    </row>
+    <row r="924">
+      <c r="Y924" s="4"/>
+    </row>
+    <row r="925">
+      <c r="Y925" s="4"/>
+    </row>
+    <row r="926">
+      <c r="Y926" s="4"/>
+    </row>
+    <row r="927">
+      <c r="Y927" s="4"/>
+    </row>
+    <row r="928">
+      <c r="Y928" s="4"/>
+    </row>
+    <row r="929">
+      <c r="Y929" s="4"/>
+    </row>
+    <row r="930">
+      <c r="Y930" s="4"/>
+    </row>
+    <row r="931">
+      <c r="Y931" s="4"/>
+    </row>
+    <row r="932">
+      <c r="Y932" s="4"/>
+    </row>
+    <row r="933">
+      <c r="Y933" s="4"/>
+    </row>
+    <row r="934">
+      <c r="Y934" s="4"/>
+    </row>
+    <row r="935">
+      <c r="Y935" s="4"/>
+    </row>
+    <row r="936">
+      <c r="Y936" s="4"/>
+    </row>
+    <row r="937">
+      <c r="Y937" s="4"/>
+    </row>
+    <row r="938">
+      <c r="Y938" s="4"/>
+    </row>
+    <row r="939">
+      <c r="Y939" s="4"/>
+    </row>
+    <row r="940">
+      <c r="Y940" s="4"/>
+    </row>
+    <row r="941">
+      <c r="Y941" s="4"/>
+    </row>
+    <row r="942">
+      <c r="Y942" s="4"/>
+    </row>
+    <row r="943">
+      <c r="Y943" s="4"/>
+    </row>
+    <row r="944">
+      <c r="Y944" s="4"/>
+    </row>
+    <row r="945">
+      <c r="Y945" s="4"/>
+    </row>
+    <row r="946">
+      <c r="Y946" s="4"/>
+    </row>
+    <row r="947">
+      <c r="Y947" s="4"/>
+    </row>
+    <row r="948">
+      <c r="Y948" s="4"/>
+    </row>
+    <row r="949">
+      <c r="Y949" s="4"/>
+    </row>
+    <row r="950">
+      <c r="Y950" s="4"/>
+    </row>
+    <row r="951">
+      <c r="Y951" s="4"/>
+    </row>
+    <row r="952">
+      <c r="Y952" s="4"/>
+    </row>
+    <row r="953">
+      <c r="Y953" s="4"/>
+    </row>
+    <row r="954">
+      <c r="Y954" s="4"/>
+    </row>
+    <row r="955">
+      <c r="Y955" s="4"/>
+    </row>
+    <row r="956">
+      <c r="Y956" s="4"/>
+    </row>
+    <row r="957">
+      <c r="Y957" s="4"/>
+    </row>
+    <row r="958">
+      <c r="Y958" s="4"/>
+    </row>
+    <row r="959">
+      <c r="Y959" s="4"/>
+    </row>
+    <row r="960">
+      <c r="Y960" s="4"/>
+    </row>
+    <row r="961">
+      <c r="Y961" s="4"/>
+    </row>
+    <row r="962">
+      <c r="Y962" s="4"/>
+    </row>
+    <row r="963">
+      <c r="Y963" s="4"/>
+    </row>
+    <row r="964">
+      <c r="Y964" s="4"/>
+    </row>
+    <row r="965">
+      <c r="Y965" s="4"/>
+    </row>
+    <row r="966">
+      <c r="Y966" s="4"/>
+    </row>
+    <row r="967">
+      <c r="Y967" s="4"/>
+    </row>
+    <row r="968">
+      <c r="Y968" s="4"/>
+    </row>
+    <row r="969">
+      <c r="Y969" s="4"/>
+    </row>
+    <row r="970">
+      <c r="Y970" s="4"/>
+    </row>
+    <row r="971">
+      <c r="Y971" s="4"/>
+    </row>
+    <row r="972">
+      <c r="Y972" s="4"/>
+    </row>
+    <row r="973">
+      <c r="Y973" s="4"/>
+    </row>
+    <row r="974">
+      <c r="Y974" s="4"/>
+    </row>
+    <row r="975">
+      <c r="Y975" s="4"/>
+    </row>
+    <row r="976">
+      <c r="Y976" s="4"/>
+    </row>
+    <row r="977">
+      <c r="Y977" s="4"/>
+    </row>
+    <row r="978">
+      <c r="Y978" s="4"/>
+    </row>
+    <row r="979">
+      <c r="Y979" s="4"/>
+    </row>
+    <row r="980">
+      <c r="Y980" s="4"/>
+    </row>
+    <row r="981">
+      <c r="Y981" s="4"/>
+    </row>
+    <row r="982">
+      <c r="Y982" s="4"/>
+    </row>
+    <row r="983">
+      <c r="Y983" s="4"/>
+    </row>
+    <row r="984">
+      <c r="Y984" s="4"/>
+    </row>
+    <row r="985">
+      <c r="Y985" s="4"/>
+    </row>
+    <row r="986">
+      <c r="Y986" s="4"/>
+    </row>
+    <row r="987">
+      <c r="Y987" s="4"/>
+    </row>
+    <row r="988">
+      <c r="Y988" s="4"/>
+    </row>
+    <row r="989">
+      <c r="Y989" s="4"/>
+    </row>
+    <row r="990">
+      <c r="Y990" s="4"/>
+    </row>
+    <row r="991">
+      <c r="Y991" s="4"/>
+    </row>
+    <row r="992">
+      <c r="Y992" s="4"/>
+    </row>
+    <row r="993">
+      <c r="Y993" s="4"/>
+    </row>
+    <row r="994">
+      <c r="Y994" s="4"/>
+    </row>
+    <row r="995">
+      <c r="Y995" s="4"/>
+    </row>
+    <row r="996">
+      <c r="Y996" s="4"/>
+    </row>
+    <row r="997">
+      <c r="Y997" s="4"/>
+    </row>
+    <row r="998">
+      <c r="Y998" s="4"/>
+    </row>
+    <row r="999">
+      <c r="Y999" s="4"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="L2">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G2">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H2">
       <formula1>"0,5,12,18,28"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="R2 T2 Z2 AB2">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="S2 W2:X2 AA2:AB2">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H2">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="I2">
       <formula1>"Audio,Camera and Camcorder,Safety Security,Speaker,Television,Video,Air Conditioning and Air Cleaners,Health, Home and Personal Care,Heaters,Kitchen Appliances,Lighting &amp; Electric Fan,Refrigerators and Freezers,Vacuum Cleaners,Washing Machines and Accesso"&amp;"ries,Water Purifiers and Coolers,Inverter &amp; Stabilizer"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="L2">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="M2">
       <formula1>"Kilogram,Grams,Meter,Centemeter"</formula1>
     </dataValidation>
   </dataValidations>
